--- a/src/base/脚本/获取数据/爬取企查查信息/data/原始数据.xlsx
+++ b/src/base/脚本/获取数据/爬取企查查信息/data/原始数据.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>发行人全称</t>
   </si>
@@ -34,27 +34,6 @@
   </si>
   <si>
     <t>汕头市超声仪器研究所股份有限公司</t>
-  </si>
-  <si>
-    <t>江苏美科太阳能科技股份有限公司</t>
-  </si>
-  <si>
-    <t>贝普医疗科技股份有限公司</t>
-  </si>
-  <si>
-    <t>南京肯特复合材料股份有限公司</t>
-  </si>
-  <si>
-    <t>无锡日联科技股份有限公司</t>
-  </si>
-  <si>
-    <t>思必驰科技股份有限公司</t>
-  </si>
-  <si>
-    <t>苏州锴威特半导体股份有限公司</t>
-  </si>
-  <si>
-    <t>深圳市柏瑞凯电子科技股份有限公司</t>
   </si>
 </sst>
 </file>
@@ -1036,13 +1015,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A13"/>
+      <selection activeCell="A7" sqref="A7:A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="47.7777777777778" customWidth="1"/>
   </cols>
@@ -1075,41 +1054,6 @@
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
